--- a/Project/Traffic sign classifier/Finished/TrainingStat.xlsx
+++ b/Project/Traffic sign classifier/Finished/TrainingStat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Helge-Andre/Documents/DatasynProsjekt/computer-vision/Project/Traffic sign classifier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Helge-Andre/Documents/DatasynProsjekt/computer-vision/Project/Traffic sign classifier/Finished/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="960" yWindow="9720" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="small_inception" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Ark7" sheetId="7" r:id="rId7"/>
     <sheet name="Ark9" sheetId="9" r:id="rId8"/>
     <sheet name="Inception_v3" sheetId="8" r:id="rId9"/>
+    <sheet name="class_hist" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="326">
   <si>
     <t>val_acc</t>
   </si>
@@ -998,6 +999,21 @@
   </si>
   <si>
     <t>acc: 97.81%</t>
+  </si>
+  <si>
+    <t>- loss:</t>
+  </si>
+  <si>
+    <t>- acc:</t>
+  </si>
+  <si>
+    <t>- val_loss:</t>
+  </si>
+  <si>
+    <t>- val_acc:</t>
+  </si>
+  <si>
+    <t>acc: 98.05%</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1021,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1043,7 +1059,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,7 +1115,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1518,11 +1533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1019851728"/>
-        <c:axId val="964377600"/>
+        <c:axId val="1016741136"/>
+        <c:axId val="1016757168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1019851728"/>
+        <c:axId val="1016741136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1579,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964377600"/>
+        <c:crossAx val="1016757168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1572,7 +1587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964377600"/>
+        <c:axId val="1016757168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1638,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1019851728"/>
+        <c:crossAx val="1016741136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,7 +1652,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1719,7 +1733,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2138,11 +2151,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="991918304"/>
-        <c:axId val="1021035728"/>
+        <c:axId val="1016552784"/>
+        <c:axId val="1016546928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="991918304"/>
+        <c:axId val="1016552784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,7 +2197,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1021035728"/>
+        <c:crossAx val="1016546928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2192,7 +2205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1021035728"/>
+        <c:axId val="1016546928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2256,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991918304"/>
+        <c:crossAx val="1016552784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2257,7 +2270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2339,7 +2351,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2758,11 +2769,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1021137312"/>
-        <c:axId val="1077960448"/>
+        <c:axId val="956994624"/>
+        <c:axId val="956996672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1021137312"/>
+        <c:axId val="956994624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2815,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077960448"/>
+        <c:crossAx val="956996672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2812,7 +2823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1077960448"/>
+        <c:axId val="956996672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2873,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1021137312"/>
+        <c:crossAx val="956994624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2876,7 +2887,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2958,7 +2968,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3377,11 +3386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1019812800"/>
-        <c:axId val="1023070464"/>
+        <c:axId val="1016500064"/>
+        <c:axId val="1016502112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1019812800"/>
+        <c:axId val="1016500064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3423,7 +3432,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023070464"/>
+        <c:crossAx val="1016502112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3431,7 +3440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1023070464"/>
+        <c:axId val="1016502112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,7 +3490,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1019812800"/>
+        <c:crossAx val="1016500064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3495,7 +3504,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3996,11 +4004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1080655344"/>
-        <c:axId val="1080657120"/>
+        <c:axId val="877425904"/>
+        <c:axId val="876975952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1080655344"/>
+        <c:axId val="877425904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,7 +4050,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080657120"/>
+        <c:crossAx val="876975952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4050,7 +4058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1080657120"/>
+        <c:axId val="876975952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +4108,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080655344"/>
+        <c:crossAx val="877425904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4615,11 +4623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1019548656"/>
-        <c:axId val="1079326288"/>
+        <c:axId val="1016480448"/>
+        <c:axId val="1016464192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1019548656"/>
+        <c:axId val="1016480448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,7 +4669,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1079326288"/>
+        <c:crossAx val="1016464192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4669,7 +4677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1079326288"/>
+        <c:axId val="1016464192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,7 +4727,1245 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1019548656"/>
+        <c:crossAx val="1016480448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>class_hist!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- loss:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>class_hist!$B$5:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.1441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0712</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0589</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0673</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0613</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0565</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0541</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0561</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0539</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0492</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0474</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0468</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0457</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0427</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0483</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0457</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0415</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0381</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0397</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0384</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0342</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0386</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0342</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0355</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.034</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0409</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0326</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0313</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0292</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0303</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>class_hist!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- val_loss:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>class_hist!$C$5:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.3561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1468</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1084</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0817</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0907</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0768</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0905</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1035</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.139</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1105</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1136</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0861</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0876</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0944</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0866</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1436</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0942</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1251</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0984</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0811</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0715</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0788</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0778</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1068</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="996064192"/>
+        <c:axId val="1015623648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="996064192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015623648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1015623648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996064192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>class_hist!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- acc:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>class_hist!$E$5:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.6799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9756</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9739</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9777</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9813</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9814</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9817</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9823</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9841</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9846</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9843</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9852</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9852</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9858</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9846</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9849</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9867</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9878</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9886</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9872</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.989</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9887</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9896</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9868</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9895</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9908</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9903</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>class_hist!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- val_acc:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>class_hist!$F$5:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.0565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9734</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9751</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9745</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9814</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9766</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9756</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9637</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9751</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.972</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9776</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9772</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9772</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.978</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9777</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.974</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9785</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9674</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9742</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9772</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9684</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9794</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9818</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9771</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9816</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9783</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1015555584"/>
+        <c:axId val="1015557360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1015555584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015557360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1015557360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015555584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4840,7 +6086,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5269,11 +6514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="963081216"/>
-        <c:axId val="994635024"/>
+        <c:axId val="1016724736"/>
+        <c:axId val="1016726784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="963081216"/>
+        <c:axId val="1016724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,7 +6560,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994635024"/>
+        <c:crossAx val="1016726784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5323,7 +6568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="994635024"/>
+        <c:axId val="1016726784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,7 +6618,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="963081216"/>
+        <c:crossAx val="1016724736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5387,7 +6632,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5469,7 +6713,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5840,11 +7083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1075307408"/>
-        <c:axId val="1075320064"/>
+        <c:axId val="1016708752"/>
+        <c:axId val="1016711072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1075307408"/>
+        <c:axId val="1016708752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5886,7 +7129,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075320064"/>
+        <c:crossAx val="1016711072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5894,7 +7137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1075320064"/>
+        <c:axId val="1016711072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5944,7 +7187,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075307408"/>
+        <c:crossAx val="1016708752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5958,7 +7201,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6040,7 +7282,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6411,11 +7652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1074173152"/>
-        <c:axId val="1074481184"/>
+        <c:axId val="1016703776"/>
+        <c:axId val="1016689536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1074173152"/>
+        <c:axId val="1016703776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,7 +7698,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074481184"/>
+        <c:crossAx val="1016689536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6465,7 +7706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1074481184"/>
+        <c:axId val="1016689536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6515,7 +7756,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074173152"/>
+        <c:crossAx val="1016703776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6529,7 +7770,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6636,7 +7876,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7355,11 +8594,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1016999456"/>
-        <c:axId val="1016680976"/>
+        <c:axId val="1016651584"/>
+        <c:axId val="1016653360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1016999456"/>
+        <c:axId val="1016651584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7401,7 +8640,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1016680976"/>
+        <c:crossAx val="1016653360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7409,7 +8648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1016680976"/>
+        <c:axId val="1016653360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7459,7 +8698,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1016999456"/>
+        <c:crossAx val="1016651584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7473,7 +8712,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7580,7 +8818,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8299,11 +9536,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1021422144"/>
-        <c:axId val="990576960"/>
+        <c:axId val="1016628000"/>
+        <c:axId val="1016618224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1021422144"/>
+        <c:axId val="1016628000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8345,7 +9582,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990576960"/>
+        <c:crossAx val="1016618224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8353,7 +9590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990576960"/>
+        <c:axId val="1016618224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8404,7 +9641,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1021422144"/>
+        <c:crossAx val="1016628000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8418,7 +9655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8525,7 +9761,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8944,11 +10179,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="993079200"/>
-        <c:axId val="995198000"/>
+        <c:axId val="961659728"/>
+        <c:axId val="961656800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="993079200"/>
+        <c:axId val="961659728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8990,7 +10225,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995198000"/>
+        <c:crossAx val="961656800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8998,7 +10233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="995198000"/>
+        <c:axId val="961656800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9018,6 +10253,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9048,7 +10284,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993079200"/>
+        <c:crossAx val="961659728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9062,7 +10298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9169,7 +10404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9588,11 +10822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1074179248"/>
-        <c:axId val="1018421008"/>
+        <c:axId val="1016586288"/>
+        <c:axId val="1016588608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1074179248"/>
+        <c:axId val="1016586288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9634,7 +10868,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1018421008"/>
+        <c:crossAx val="1016588608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9643,7 +10877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1018421008"/>
+        <c:axId val="1016588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9694,7 +10928,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074179248"/>
+        <c:crossAx val="1016586288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9708,7 +10942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9790,7 +11023,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10209,11 +11441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="995684512"/>
-        <c:axId val="991800912"/>
+        <c:axId val="1077724192"/>
+        <c:axId val="1077726512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="995684512"/>
+        <c:axId val="1077724192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10255,7 +11487,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991800912"/>
+        <c:crossAx val="1077726512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10263,7 +11495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="991800912"/>
+        <c:axId val="1077726512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10313,7 +11545,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995684512"/>
+        <c:crossAx val="1077724192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10327,7 +11559,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10595,6 +11826,86 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13535,6 +14846,1038 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18633,6 +20976,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -20247,6 +22655,741 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1.1440999999999999</v>
+      </c>
+      <c r="C5">
+        <v>8.3560999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.67989999999999995</v>
+      </c>
+      <c r="F5">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.2122</v>
+      </c>
+      <c r="E6">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.93240000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.1731</v>
+      </c>
+      <c r="E7">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.1343</v>
+      </c>
+      <c r="E8">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.95879999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.1085</v>
+      </c>
+      <c r="E9">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="F9">
+        <v>0.96650000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.1181</v>
+      </c>
+      <c r="C10">
+        <v>0.1255</v>
+      </c>
+      <c r="E10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0.1119</v>
+      </c>
+      <c r="C11">
+        <v>0.1113</v>
+      </c>
+      <c r="E11">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.96719999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0.1104</v>
+      </c>
+      <c r="C12">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.95720000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.1144</v>
+      </c>
+      <c r="E13">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.1197</v>
+      </c>
+      <c r="E14">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.96950000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.1101</v>
+      </c>
+      <c r="E15">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.1084</v>
+      </c>
+      <c r="E17">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.97840000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.9768</v>
+      </c>
+      <c r="F19">
+        <v>0.97340000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.1162</v>
+      </c>
+      <c r="E20">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C21">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.97509999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="F23">
+        <v>0.97140000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.97789999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>6.13E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.08</v>
+      </c>
+      <c r="E25">
+        <v>0.9798</v>
+      </c>
+      <c r="F25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="C26">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.97560000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="F27">
+        <v>0.98140000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="C28">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.97660000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="F29">
+        <v>0.97560000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="F30">
+        <v>0.9637</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.1105</v>
+      </c>
+      <c r="E31">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="F31">
+        <v>0.97509999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="C32">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="F32">
+        <v>0.97889999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="F33">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="C34">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="F34">
+        <v>0.97760000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="C35">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="F35">
+        <v>0.97960000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="C36">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="C37">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="F37">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.9849</v>
+      </c>
+      <c r="F38">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="C39">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F39">
+        <v>0.97770000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F40">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="C41">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F41">
+        <v>0.97850000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="C42">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.98009999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="F43">
+        <v>0.96740000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="C44">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="F44">
+        <v>0.97929999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.97419999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="C46">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.1268</v>
+      </c>
+      <c r="E47">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="F47">
+        <v>0.96840000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="C48">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.97940000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C49">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="F49">
+        <v>0.98180000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.1008</v>
+      </c>
+      <c r="E50">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="F50">
+        <v>0.97709999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>2.92E-2</v>
+      </c>
+      <c r="C51">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.98160000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0.03</v>
+      </c>
+      <c r="C52">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="F52">
+        <v>0.9819</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="E53">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="F53">
+        <v>0.97829999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="C54">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="F54">
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
@@ -26116,7 +29259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
